--- a/docs/assets/disciplinas/LOB1211.xlsx
+++ b/docs/assets/disciplinas/LOB1211.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Nome:</t>
   </si>
   <si>
-    <t xml:space="preserve"> Poluição Ambiental II</t>
+    <t xml:space="preserve"> Poluição Atmosférica</t>
   </si>
   <si>
     <t>Name:</t>
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EA-6</t>
+    <t>EA-7</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -134,21 +134,6 @@
   </si>
   <si>
     <t>Bibliografia básica:GUNTER, F.; Introdução aos problemas da poluição ambiental. 1 ed. São Paulo: Editora EPU, 2008.LENZI, E. F.; FAVERO, L.O.B. Introdução à química da atmosfera  Ciência, vida e sobrevivência. 1ª. ed. Rio de Janeiro: Editora LCT, 465p. 2009.SPIRO, T. G.; STIGLIANI, E. W. M. Química ambiental. 2 ed. Sao Paulo: Pearson / Prentice Hall. 2008. 352p.VESILIND, P. A.; MORGAN, S. M., revisão técnica Carlos Alberto de Moya Figueira Netto; Lineu Belico dos Reis. Introdução à Engenharia Ambiental. Tradução da 2ª edição norte-americana. Editora Cengage Learning, São Paulo, 2015.Bibliografia complementar:JACOBSON, Mark Z. Atmospheric pollution: history, science, and regulation. Cambridge, Inglaterra: Cambridge University Press, c2002. xi, 399 p. Includes bibliographical references (p 355-370). ISBN 9780521010443.SEINFELD, J.H.;MANAHAN, S.E. Environmental chemistry. 9 th edition. Boca Raton, FL: CRC Press. 753p. 2010.PANDIS, S.N. Atmospheric Chemistry and Physics: From air pollution to climate change. John Wiley&amp; Sons, 1998.SCHNELLE JR, Karl B; BROWN, Charles A. Air pollution control technology handbook. New York: CRC Press, 2001. 386 p. (Mechanical engineering handbook series). ISBN 9780849395888.VALLERO, Daniel A. Fundamentals of air pollution. 4 ed. Amsterdam: Elsevier, 2008. 942 p</t>
-  </si>
-  <si>
-    <t>Requisitos:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOB1207 -  Poluição Ambiental I  (Requisito)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOQ4076 -  Termodinâmica Aplicada  (Requisito)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOQ4083 -  Fenômenos de Transporte I  (Requisito)
-</t>
   </si>
 </sst>
 </file>
@@ -504,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,35 +721,6 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/assets/disciplinas/LOB1211.xlsx
+++ b/docs/assets/disciplinas/LOB1211.xlsx
@@ -34,7 +34,7 @@
     <t>Name:</t>
   </si>
   <si>
-    <t>Environmental Pollution II</t>
+    <t>Atmospheric pollution</t>
   </si>
   <si>
     <t>Créditos-aula:</t>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2017</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -82,7 +82,7 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840650 - Janaína Ferreira Batista Leal</t>
+    <t>7455355 - Robson da Silva Rocha</t>
   </si>
   <si>
     <t>Programa resumido:</t>

--- a/docs/assets/disciplinas/LOB1211.xlsx
+++ b/docs/assets/disciplinas/LOB1211.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Capacitar o aluno a identificar os principais poluentes da atmosfera e seus efeitos no homem e no meio ambiente.</t>
+    <t>7455355 - Robson da Silva Rocha</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>7455355 - Robson da Silva Rocha</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Características e composição da atmosfera. Origem, movimentação e destino dos poluentes. Histórico da poluição do ar. Principais poluentes atmosféricos e padrões da qualidade do ar.  Dispersão de poluentes na atmosfera. Modelos matemáticos do transporte de poluentes atmosféricos. Qualidade do ar no interior de edifícios. Controle de poluição de fontes fixas e móveis. Otimização exergoeconômica/ambiental.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1) Caracterização da atmosfera e seus poluentes. 2) Padrões da qualidade do ar. 3) Dispersão de poluentes na atmosfera. 4) Modelagem matemática do transporte de poluentes.5) Qualidade do ar no interior de edifícios.6) Controle de poluição de fontes fixas e móveis.7) Otimização exergoeconômica/ambiental.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas teóricas expositivas e atividades em grupo.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada de provas e atividades.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>1 (uma) prova escrita.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Bibliografia básica:GUNTER, F.; Introdução aos problemas da poluição ambiental. 1 ed. São Paulo: Editora EPU, 2008.LENZI, E. F.; FAVERO, L.O.B. Introdução à química da atmosfera  Ciência, vida e sobrevivência. 1ª. ed. Rio de Janeiro: Editora LCT, 465p. 2009.SPIRO, T. G.; STIGLIANI, E. W. M. Química ambiental. 2 ed. Sao Paulo: Pearson / Prentice Hall. 2008. 352p.VESILIND, P. A.; MORGAN, S. M., revisão técnica Carlos Alberto de Moya Figueira Netto; Lineu Belico dos Reis. Introdução à Engenharia Ambiental. Tradução da 2ª edição norte-americana. Editora Cengage Learning, São Paulo, 2015.Bibliografia complementar:JACOBSON, Mark Z. Atmospheric pollution: history, science, and regulation. Cambridge, Inglaterra: Cambridge University Press, c2002. xi, 399 p. Includes bibliographical references (p 355-370). ISBN 9780521010443.SEINFELD, J.H.;MANAHAN, S.E. Environmental chemistry. 9 th edition. Boca Raton, FL: CRC Press. 753p. 2010.PANDIS, S.N. Atmospheric Chemistry and Physics: From air pollution to climate change. John Wiley&amp; Sons, 1998.SCHNELLE JR, Karl B; BROWN, Charles A. Air pollution control technology handbook. New York: CRC Press, 2001. 386 p. (Mechanical engineering handbook series). ISBN 9780849395888.VALLERO, Daniel A. Fundamentals of air pollution. 4 ed. Amsterdam: Elsevier, 2008. 942 p</t>
   </si>
 </sst>
 </file>
@@ -489,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,34 +611,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -661,64 +655,53 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1211.xlsx
+++ b/docs/assets/disciplinas/LOB1211.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Capacitar o aluno a identificar os principais poluentes da atmosfera e seus efeitos no homem e no meio ambiente.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Enable the student to identify the main pollutants from the atmosphere, to evaluate their influence on climate change and make the management and monitoring of air quality in large Brazilian cities.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>7455355 - Robson da Silva Rocha</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Enable the student to identify the main pollutants from the atmosphere, to evaluate their influence on climate change and make the management and monitoring of air quality in large Brazilian cities.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Características e composição da atmosfera. Origem, movimentação e destino dos poluentes. Histórico da poluição do ar. Principais poluentes atmosféricos e padrões da qualidade do ar.  Dispersão de poluentes na atmosfera. Modelos matemáticos do transporte de poluentes atmosféricos. Qualidade do ar no interior de edifícios. Controle de poluição de fontes fixas e móveis. Otimização exergoeconômica/ambiental.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1) Caracterização da atmosfera e seus poluentes. 2) Padrões da qualidade do ar. 3) Dispersão de poluentes na atmosfera. 4) Modelagem matemática do transporte de poluentes.5) Qualidade do ar no interior de edifícios.6) Controle de poluição de fontes fixas e móveis.7) Otimização exergoeconômica/ambiental.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas teóricas expositivas e atividades em grupo.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas teóricas expositivas e atividades em grupo.</t>
+    <t>Média ponderada de provas e atividades.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média ponderada de provas e atividades.</t>
+    <t>1 (uma) prova escrita.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>1 (uma) prova escrita.</t>
+    <t>Bibliografia básica:GUNTER, F.; Introdução aos problemas da poluição ambiental. 1 ed. São Paulo: Editora EPU, 2008.LENZI, E. F.; FAVERO, L.O.B. Introdução à química da atmosfera  Ciência, vida e sobrevivência. 1ª. ed. Rio de Janeiro: Editora LCT, 465p. 2009.SPIRO, T. G.; STIGLIANI, E. W. M. Química ambiental. 2 ed. Sao Paulo: Pearson / Prentice Hall. 2008. 352p.VESILIND, P. A.; MORGAN, S. M., revisão técnica Carlos Alberto de Moya Figueira Netto; Lineu Belico dos Reis. Introdução à Engenharia Ambiental. Tradução da 2ª edição norte-americana. Editora Cengage Learning, São Paulo, 2015.Bibliografia complementar:JACOBSON, Mark Z. Atmospheric pollution: history, science, and regulation. Cambridge, Inglaterra: Cambridge University Press, c2002. xi, 399 p. Includes bibliographical references (p 355-370). ISBN 9780521010443.SEINFELD, J.H.;MANAHAN, S.E. Environmental chemistry. 9 th edition. Boca Raton, FL: CRC Press. 753p. 2010.PANDIS, S.N. Atmospheric Chemistry and Physics: From air pollution to climate change. John Wiley&amp; Sons, 1998.SCHNELLE JR, Karl B; BROWN, Charles A. Air pollution control technology handbook. New York: CRC Press, 2001. 386 p. (Mechanical engineering handbook series). ISBN 9780849395888.VALLERO, Daniel A. Fundamentals of air pollution. 4 ed. Amsterdam: Elsevier, 2008. 942 p</t>
   </si>
 </sst>
 </file>
@@ -480,13 +489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -611,37 +620,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -655,53 +661,64 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
